--- a/Data_science_outputs_highlands/Graphs/Third/5/Montlhy_consumption_3.xlsx
+++ b/Data_science_outputs_highlands/Graphs/Third/5/Montlhy_consumption_3.xlsx
@@ -475,16 +475,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>29176.45275151669</v>
+        <v>17445.7366113667</v>
       </c>
       <c r="C2" t="n">
-        <v>17161.49820085002</v>
+        <v>13527.89470950004</v>
       </c>
       <c r="D2" t="n">
-        <v>8594.0449513</v>
+        <v>900.3136987833334</v>
       </c>
       <c r="E2" t="n">
-        <v>2965.3597632</v>
+        <v>2523.3797994</v>
       </c>
       <c r="F2" t="n">
         <v>11.904</v>
@@ -498,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27429.84021151669</v>
+        <v>16290.21821088337</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8044.967763299999</v>
+        <v>860.6700489333333</v>
       </c>
       <c r="E3" t="n">
-        <v>2755.029391733333</v>
+        <v>2327.996217683333</v>
       </c>
       <c r="F3" t="n">
         <v>32.016</v>
@@ -521,16 +521,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>29349.48151655003</v>
+        <v>17319.29959123337</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>8611.6680977</v>
+        <v>927.0436021666667</v>
       </c>
       <c r="E4" t="n">
-        <v>2925.820044133333</v>
+        <v>2538.430312383333</v>
       </c>
       <c r="F4" t="n">
         <v>56.544</v>
@@ -544,16 +544,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28288.23043103336</v>
+        <v>16867.68593515004</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>8340.016675133335</v>
+        <v>902.7261546</v>
       </c>
       <c r="E5" t="n">
-        <v>2868.97134185</v>
+        <v>2447.985977883333</v>
       </c>
       <c r="F5" t="n">
         <v>76.68000000000001</v>
@@ -567,16 +567,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29275.12281891669</v>
+        <v>17364.58888460004</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>8575.539436383333</v>
+        <v>914.60556085</v>
       </c>
       <c r="E6" t="n">
-        <v>2947.1259387</v>
+        <v>2521.187566483333</v>
       </c>
       <c r="F6" t="n">
         <v>101.928</v>
@@ -590,16 +590,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28354.09004983336</v>
+        <v>16830.2312553667</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>8307.964866233333</v>
+        <v>912.8326435499999</v>
       </c>
       <c r="E7" t="n">
-        <v>2800.361033866667</v>
+        <v>2457.77784635</v>
       </c>
       <c r="F7" t="n">
         <v>120.6</v>
@@ -613,16 +613,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29304.65334831669</v>
+        <v>17439.24511621671</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>8610.86877485</v>
+        <v>943.5029543833333</v>
       </c>
       <c r="E8" t="n">
-        <v>2933.33369105</v>
+        <v>2519.80240735</v>
       </c>
       <c r="F8" t="n">
         <v>147.312</v>
@@ -636,16 +636,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29258.60062765003</v>
+        <v>17377.5133324667</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>8627.348900333332</v>
+        <v>943.4883545166666</v>
       </c>
       <c r="E9" t="n">
-        <v>2928.048547983333</v>
+        <v>2522.6434537</v>
       </c>
       <c r="F9" t="n">
         <v>170.376</v>
@@ -659,16 +659,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28237.94013825003</v>
+        <v>16798.8730636167</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>8345.349665350001</v>
+        <v>905.1160647833334</v>
       </c>
       <c r="E10" t="n">
-        <v>2825.62863745</v>
+        <v>2412.265616</v>
       </c>
       <c r="F10" t="n">
         <v>186.84</v>
@@ -682,16 +682,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29238.62398665003</v>
+        <v>17410.24908965004</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8607.035287683333</v>
+        <v>937.3006201333333</v>
       </c>
       <c r="E11" t="n">
-        <v>2933.169914733333</v>
+        <v>2539.8197495</v>
       </c>
       <c r="F11" t="n">
         <v>215.76</v>
@@ -705,16 +705,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28309.90115430003</v>
+        <v>16915.18438788337</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>8328.583892050001</v>
+        <v>885.1591334333333</v>
       </c>
       <c r="E12" t="n">
-        <v>2867.054823816667</v>
+        <v>2434.857553716667</v>
       </c>
       <c r="F12" t="n">
         <v>230.76</v>
@@ -728,16 +728,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28293.52384196669</v>
+        <v>16840.46133783337</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>8315.8992956</v>
+        <v>890.5966927833333</v>
       </c>
       <c r="E13" t="n">
-        <v>2837.1867194</v>
+        <v>2463.18019795</v>
       </c>
       <c r="F13" t="n">
         <v>252.36</v>
